--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N2">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O2">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P2">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q2">
-        <v>268.97372586561</v>
+        <v>62.909284662174</v>
       </c>
       <c r="R2">
-        <v>1075.89490346244</v>
+        <v>251.637138648696</v>
       </c>
       <c r="S2">
-        <v>0.01148365912801922</v>
+        <v>0.00644005020946846</v>
       </c>
       <c r="T2">
-        <v>0.005703016675964824</v>
+        <v>0.003336120192165755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P3">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q3">
-        <v>117.7058943398025</v>
+        <v>78.144342350595</v>
       </c>
       <c r="R3">
-        <v>706.2353660388152</v>
+        <v>468.86605410357</v>
       </c>
       <c r="S3">
-        <v>0.005025376971698342</v>
+        <v>0.0079996695404537</v>
       </c>
       <c r="T3">
-        <v>0.003743555301464528</v>
+        <v>0.006216067782823308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N4">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O4">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P4">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q4">
-        <v>267.932404619845</v>
+        <v>28.582381961455</v>
       </c>
       <c r="R4">
-        <v>1607.59442771907</v>
+        <v>171.49429176873</v>
       </c>
       <c r="S4">
-        <v>0.01143920059144415</v>
+        <v>0.00292599058988592</v>
       </c>
       <c r="T4">
-        <v>0.008521406505379964</v>
+        <v>0.002273613396985709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N5">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O5">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P5">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q5">
-        <v>33.82412772708075</v>
+        <v>37.869495981074</v>
       </c>
       <c r="R5">
-        <v>135.296510908323</v>
+        <v>151.477983924296</v>
       </c>
       <c r="S5">
-        <v>0.001444099240066487</v>
+        <v>0.00387671639941602</v>
       </c>
       <c r="T5">
-        <v>0.0007171688009924285</v>
+        <v>0.002008243948219057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N6">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O6">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P6">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q6">
-        <v>123.438185169355</v>
+        <v>12.72667970706033</v>
       </c>
       <c r="R6">
-        <v>740.6291110161301</v>
+        <v>76.36007824236201</v>
       </c>
       <c r="S6">
-        <v>0.005270113418343475</v>
+        <v>0.00130283561088675</v>
       </c>
       <c r="T6">
-        <v>0.003925866882756777</v>
+        <v>0.001012356126236778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N7">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O7">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P7">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q7">
-        <v>492.2493899880556</v>
+        <v>38.77671392868433</v>
       </c>
       <c r="R7">
-        <v>2953.496339928333</v>
+        <v>232.660283572106</v>
       </c>
       <c r="S7">
-        <v>0.02101626908876075</v>
+        <v>0.003969588686311605</v>
       </c>
       <c r="T7">
-        <v>0.01565565449265128</v>
+        <v>0.003084531457113417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N8">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O8">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P8">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q8">
-        <v>2313.644767558133</v>
+        <v>815.08375563944</v>
       </c>
       <c r="R8">
-        <v>13881.8686053488</v>
+        <v>4890.502533836639</v>
       </c>
       <c r="S8">
-        <v>0.0987795658050179</v>
+        <v>0.08344047050333629</v>
       </c>
       <c r="T8">
-        <v>0.07358388620958883</v>
+        <v>0.06483663079537544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P9">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q9">
         <v>1012.4766858682</v>
@@ -1013,10 +1013,10 @@
         <v>9112.2901728138</v>
       </c>
       <c r="S9">
-        <v>0.04322703676040941</v>
+        <v>0.1036476686696139</v>
       </c>
       <c r="T9">
-        <v>0.04830169066192783</v>
+        <v>0.1208076653773985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N10">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O10">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P10">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q10">
-        <v>2304.687582450711</v>
+        <v>370.3274541964666</v>
       </c>
       <c r="R10">
-        <v>20742.1882420564</v>
+        <v>3332.9470877682</v>
       </c>
       <c r="S10">
-        <v>0.09839714458454672</v>
+        <v>0.03791057888795041</v>
       </c>
       <c r="T10">
-        <v>0.1099485136138846</v>
+        <v>0.044187086765625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N11">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O11">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P11">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q11">
-        <v>290.9466933289933</v>
+        <v>490.6558892567734</v>
       </c>
       <c r="R11">
-        <v>1745.68015997396</v>
+        <v>2943.93533554064</v>
       </c>
       <c r="S11">
-        <v>0.01242178075149194</v>
+        <v>0.05022865192878224</v>
       </c>
       <c r="T11">
-        <v>0.00925336018526831</v>
+        <v>0.0390297003457772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N12">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O12">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P12">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q12">
-        <v>1061.784418960845</v>
+        <v>164.8931465070089</v>
       </c>
       <c r="R12">
-        <v>9556.0597706476</v>
+        <v>1484.03831856308</v>
       </c>
       <c r="S12">
-        <v>0.04533219850953205</v>
+        <v>0.0168801814931602</v>
       </c>
       <c r="T12">
-        <v>0.05065398864994476</v>
+        <v>0.0196748787841602</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N13">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O13">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P13">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q13">
-        <v>4234.20622893324</v>
+        <v>502.4102529551155</v>
       </c>
       <c r="R13">
-        <v>38107.85606039916</v>
+        <v>4521.69227659604</v>
       </c>
       <c r="S13">
-        <v>0.1807766942823985</v>
+        <v>0.0514319511365889</v>
       </c>
       <c r="T13">
-        <v>0.2019990408898806</v>
+        <v>0.05994706897288176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N14">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O14">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P14">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q14">
-        <v>1610.005804684067</v>
+        <v>893.47846415148</v>
       </c>
       <c r="R14">
-        <v>9660.034828104401</v>
+        <v>5360.87078490888</v>
       </c>
       <c r="S14">
-        <v>0.06873815572738073</v>
+        <v>0.09146577013415129</v>
       </c>
       <c r="T14">
-        <v>0.05120513122404956</v>
+        <v>0.07107261419823283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P15">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q15">
-        <v>704.5564488603501</v>
+        <v>1109.8566350019</v>
       </c>
       <c r="R15">
-        <v>6341.008039743151</v>
+        <v>9988.709715017101</v>
       </c>
       <c r="S15">
-        <v>0.03008058154796315</v>
+        <v>0.1136164954522461</v>
       </c>
       <c r="T15">
-        <v>0.03361190249782112</v>
+        <v>0.132426939651674</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N16">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O16">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P16">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q16">
-        <v>1603.772730264522</v>
+        <v>405.9455273391</v>
       </c>
       <c r="R16">
-        <v>14433.9545723807</v>
+        <v>3653.5097460519</v>
       </c>
       <c r="S16">
-        <v>0.06847203864950158</v>
+        <v>0.04155681617446341</v>
       </c>
       <c r="T16">
-        <v>0.07651033884582351</v>
+        <v>0.04843699821708048</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N17">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O17">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P17">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q17">
-        <v>202.4623104123717</v>
+        <v>537.84714432948</v>
       </c>
       <c r="R17">
-        <v>1214.77386247423</v>
+        <v>3227.08286597688</v>
       </c>
       <c r="S17">
-        <v>0.008643997295886661</v>
+        <v>0.05505964076847573</v>
       </c>
       <c r="T17">
-        <v>0.006439175028082646</v>
+        <v>0.04278357466942765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N18">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O18">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P18">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q18">
-        <v>738.868430374589</v>
+        <v>180.75255980854</v>
       </c>
       <c r="R18">
-        <v>6649.815873371301</v>
+        <v>1626.77303827686</v>
       </c>
       <c r="S18">
-        <v>0.03154550938970071</v>
+        <v>0.01850371637363205</v>
       </c>
       <c r="T18">
-        <v>0.03524880608308975</v>
+        <v>0.02156720748856914</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N19">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O19">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P19">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q19">
-        <v>2946.47506064937</v>
+        <v>550.7320420490199</v>
       </c>
       <c r="R19">
-        <v>26518.27554584433</v>
+        <v>4956.58837844118</v>
       </c>
       <c r="S19">
-        <v>0.1257978455583915</v>
+        <v>0.05637867322454811</v>
       </c>
       <c r="T19">
-        <v>0.1405659299705569</v>
+        <v>0.0657127746022295</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N20">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O20">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P20">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q20">
-        <v>165.61918606378</v>
+        <v>38.063006263788</v>
       </c>
       <c r="R20">
-        <v>662.4767442551199</v>
+        <v>152.252025055152</v>
       </c>
       <c r="S20">
-        <v>0.007071003949161611</v>
+        <v>0.003896526129305954</v>
       </c>
       <c r="T20">
-        <v>0.00351160313871468</v>
+        <v>0.002018505924094648</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P21">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q21">
-        <v>72.47679806914499</v>
+        <v>47.28091581939</v>
       </c>
       <c r="R21">
-        <v>434.86078841487</v>
+        <v>283.6854949163401</v>
       </c>
       <c r="S21">
-        <v>0.003094349981723466</v>
+        <v>0.004840167448440365</v>
       </c>
       <c r="T21">
-        <v>0.002305074891675786</v>
+        <v>0.003761006475026702</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N22">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O22">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P22">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q22">
-        <v>164.9779978711433</v>
+        <v>17.29365370271</v>
       </c>
       <c r="R22">
-        <v>989.8679872268599</v>
+        <v>103.76192221626</v>
       </c>
       <c r="S22">
-        <v>0.007043628834296939</v>
+        <v>0.001770358679941852</v>
       </c>
       <c r="T22">
-        <v>0.005247012157034161</v>
+        <v>0.00137564051849622</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N23">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O23">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P23">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q23">
-        <v>20.82703240046349</v>
+        <v>22.912784185588</v>
       </c>
       <c r="R23">
-        <v>83.30812960185398</v>
+        <v>91.65113674235201</v>
       </c>
       <c r="S23">
-        <v>0.0008891966676872887</v>
+        <v>0.00234559145579708</v>
       </c>
       <c r="T23">
-        <v>0.0004415929946631616</v>
+        <v>0.00121507981517771</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N24">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O24">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P24">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q24">
-        <v>76.00642661712334</v>
+        <v>7.700225682240668</v>
       </c>
       <c r="R24">
-        <v>456.03855970274</v>
+        <v>46.20135409344401</v>
       </c>
       <c r="S24">
-        <v>0.003245045187967367</v>
+        <v>0.0007882753759507576</v>
       </c>
       <c r="T24">
-        <v>0.002417332308664943</v>
+        <v>0.0006125219477706744</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N25">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O25">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P25">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q25">
-        <v>303.1000260261389</v>
+        <v>23.46169270692867</v>
       </c>
       <c r="R25">
-        <v>1818.600156156834</v>
+        <v>140.770156241572</v>
       </c>
       <c r="S25">
-        <v>0.01294065942454554</v>
+        <v>0.002401783454431656</v>
       </c>
       <c r="T25">
-        <v>0.009639888602592243</v>
+        <v>0.001866283185438177</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N26">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O26">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P26">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q26">
-        <v>150.76066107254</v>
+        <v>101.200359916222</v>
       </c>
       <c r="R26">
-        <v>904.5639664352399</v>
+        <v>607.202159497332</v>
       </c>
       <c r="S26">
-        <v>0.006436628842093315</v>
+        <v>0.01035992385824447</v>
       </c>
       <c r="T26">
-        <v>0.004794839503798386</v>
+        <v>0.008050081144237322</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P27">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q27">
-        <v>65.974542255735</v>
+        <v>125.708559774035</v>
       </c>
       <c r="R27">
-        <v>593.770880301615</v>
+        <v>1131.377037966315</v>
       </c>
       <c r="S27">
-        <v>0.002816740378465452</v>
+        <v>0.01286883869451355</v>
       </c>
       <c r="T27">
-        <v>0.003147412652634283</v>
+        <v>0.01499941463959126</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N28">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O28">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P28">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q28">
-        <v>150.1769970774967</v>
+        <v>45.97965717294833</v>
       </c>
       <c r="R28">
-        <v>1351.59297369747</v>
+        <v>413.8169145565349</v>
       </c>
       <c r="S28">
-        <v>0.006411709685611376</v>
+        <v>0.004706957047724614</v>
       </c>
       <c r="T28">
-        <v>0.007164414705662422</v>
+        <v>0.005486244883904545</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N29">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O29">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P29">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q29">
-        <v>18.9585352246805</v>
+        <v>60.91957083458866</v>
       </c>
       <c r="R29">
-        <v>113.751211348083</v>
+        <v>365.517425007532</v>
       </c>
       <c r="S29">
-        <v>0.0008094223901837698</v>
+        <v>0.006236362359241991</v>
       </c>
       <c r="T29">
-        <v>0.0006029632198661713</v>
+        <v>0.00484590656492262</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N30">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O30">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P30">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q30">
-        <v>69.18751018463666</v>
+        <v>20.47304422247544</v>
       </c>
       <c r="R30">
-        <v>622.6875916617299</v>
+        <v>184.257398002279</v>
       </c>
       <c r="S30">
-        <v>0.00295391596454184</v>
+        <v>0.00209583423880016</v>
       </c>
       <c r="T30">
-        <v>0.003300692017161502</v>
+        <v>0.002442822348610069</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N31">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O31">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P31">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q31">
-        <v>275.907407715477</v>
+        <v>62.37898629788077</v>
       </c>
       <c r="R31">
-        <v>2483.166669439293</v>
+        <v>561.4108766809269</v>
       </c>
       <c r="S31">
-        <v>0.01177968818665594</v>
+        <v>0.006385763340520786</v>
       </c>
       <c r="T31">
-        <v>0.01316256901992724</v>
+        <v>0.007442995782953458</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N32">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O32">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P32">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q32">
-        <v>321.81332702788</v>
+        <v>461.87075237258</v>
       </c>
       <c r="R32">
-        <v>1930.87996216728</v>
+        <v>2771.22451423548</v>
       </c>
       <c r="S32">
-        <v>0.01373961169831293</v>
+        <v>0.0472819052312778</v>
       </c>
       <c r="T32">
-        <v>0.01023505231606551</v>
+        <v>0.03673995861108807</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P33">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q33">
-        <v>140.82909156417</v>
+        <v>573.72431412865</v>
       </c>
       <c r="R33">
-        <v>1267.46182407753</v>
+        <v>5163.51882715785</v>
       </c>
       <c r="S33">
-        <v>0.006012606910310526</v>
+        <v>0.05873240188984335</v>
       </c>
       <c r="T33">
-        <v>0.006718459113060845</v>
+        <v>0.06845618859924438</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N34">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O34">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P34">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q34">
-        <v>320.5674393355933</v>
+        <v>209.8476613115166</v>
       </c>
       <c r="R34">
-        <v>2885.10695402034</v>
+        <v>1888.62895180365</v>
       </c>
       <c r="S34">
-        <v>0.01368641932971272</v>
+        <v>0.02148219428090691</v>
       </c>
       <c r="T34">
-        <v>0.01529314156779486</v>
+        <v>0.02503880474661267</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N35">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O35">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P35">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q35">
-        <v>40.46884149237099</v>
+        <v>278.0322919689133</v>
       </c>
       <c r="R35">
-        <v>242.813048954226</v>
+        <v>1668.19375181348</v>
       </c>
       <c r="S35">
-        <v>0.001727790993371698</v>
+        <v>0.02846228390210914</v>
       </c>
       <c r="T35">
-        <v>0.001287083768936319</v>
+        <v>0.02211634931852909</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N36">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O36">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P36">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q36">
-        <v>147.6874848046733</v>
+        <v>93.43741807064556</v>
       </c>
       <c r="R36">
-        <v>1329.18736324206</v>
+        <v>840.9367626358101</v>
       </c>
       <c r="S36">
-        <v>0.006305421570502291</v>
+        <v>0.009565228201996508</v>
       </c>
       <c r="T36">
-        <v>0.007045648858132933</v>
+        <v>0.01114885556730346</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N37">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O37">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P37">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q37">
-        <v>588.951256892094</v>
+        <v>284.6929532413922</v>
       </c>
       <c r="R37">
-        <v>5300.561312028846</v>
+        <v>2562.23657917253</v>
       </c>
       <c r="S37">
-        <v>0.02514489270430269</v>
+        <v>0.02914413862758209</v>
       </c>
       <c r="T37">
-        <v>0.02809678664448642</v>
+        <v>0.03396926715502327</v>
       </c>
     </row>
   </sheetData>
